--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.PatientUpdate.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.PatientUpdate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,11 +85,14 @@
   </si>
   <si>
     <t>A basic AuditEvent profile for when a RESTful Update action happens successfully, and where there is an identifiable Patient subject associated with the Update of the Resource.
-* Given a Resource has a Patient subject 
-* And OAuth is used to authorize both app and user
-* When an App requests a RESTful Update of an existing Resource
-* And the Resource is successfully Updated thus where the server supports FHIR Versioning the updated Resource has a new id version assigned
-* Then an AuditEvent following this profile is recorded where the Resource is identified by the updated version specific id where versioning is available</t>
+- Given a Resource Update is requested 
+- And that resource has a Patient subject or is otherwise associated with a Patient
+- And the request is authorized
+  - Authorization failures should follow [FHIR core Access Denied](http://hl7.org/fhir/security.html#AccessDenied)
+- When successful
+  - Note a failure AuditEvent may follow this pattern, but would not be a successful outcome and should have an OperationOutcome
+- Then the AuditEvent recorded will conform
+- And where the server supports FHIR Versioning the AuditEvent should use the version specific id</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -275,10 +278,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -297,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -684,6 +683,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2216,7 +2219,7 @@
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -2232,28 +2235,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.15625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2477,16 +2480,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2500,7 +2503,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2511,28 +2514,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2582,13 +2585,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2617,7 +2620,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2628,25 +2631,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2697,19 +2700,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2732,7 +2735,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2743,28 +2746,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2814,19 +2817,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2860,7 +2863,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2872,16 +2875,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2907,43 +2910,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2966,18 +2969,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2989,16 +2992,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3048,25 +3051,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3083,11 +3086,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3106,16 +3109,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3165,7 +3168,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3183,7 +3186,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3200,11 +3203,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3223,16 +3226,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3282,7 +3285,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3294,13 +3297,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3317,11 +3320,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3334,25 +3337,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3401,7 +3404,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3413,13 +3416,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3436,7 +3439,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3444,32 +3447,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3479,73 +3482,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3553,7 +3556,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3561,7 +3564,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3573,20 +3576,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3611,29 +3614,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3645,19 +3648,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3668,10 +3671,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3681,39 +3684,39 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3728,14 +3731,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3752,7 +3755,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3764,19 +3767,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3787,10 +3790,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3800,39 +3803,39 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3847,14 +3850,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3883,19 +3886,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3906,7 +3909,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3917,29 +3920,29 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3949,70 +3952,70 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
+      <c r="X15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4023,7 +4026,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4034,7 +4037,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -4046,16 +4049,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4105,42 +4108,42 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4148,34 +4151,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -4224,42 +4227,42 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4270,28 +4273,28 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4317,55 +4320,55 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4376,7 +4379,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4387,19 +4390,19 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>211</v>
@@ -4456,19 +4459,19 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4480,7 +4483,7 @@
         <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4511,7 +4514,7 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>216</v>
@@ -4549,7 +4552,7 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>220</v>
@@ -4585,7 +4588,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>222</v>
@@ -4687,13 +4690,13 @@
         <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4702,7 +4705,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>237</v>
@@ -4736,7 +4739,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4748,7 +4751,7 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>244</v>
@@ -4811,7 +4814,7 @@
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
@@ -4844,7 +4847,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4863,16 +4866,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4934,7 +4937,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -4974,13 +4977,13 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>253</v>
@@ -4989,10 +4992,10 @@
         <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -5053,13 +5056,13 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -5087,7 +5090,7 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -5132,7 +5135,7 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>259</v>
@@ -5162,13 +5165,13 @@
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>261</v>
@@ -5287,7 +5290,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5321,16 +5324,16 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>278</v>
@@ -5400,13 +5403,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>283</v>
@@ -5440,7 +5443,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5452,7 +5455,7 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>289</v>
@@ -5517,13 +5520,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5557,7 +5560,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5569,7 +5572,7 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>295</v>
@@ -5634,13 +5637,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5671,19 +5674,19 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>301</v>
@@ -5750,16 +5753,16 @@
         <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5793,7 +5796,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5868,13 +5871,13 @@
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>312</v>
@@ -5920,7 +5923,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>318</v>
@@ -5993,7 +5996,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6027,7 +6030,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6039,7 +6042,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>326</v>
@@ -6074,7 +6077,7 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>329</v>
@@ -6104,13 +6107,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6144,7 +6147,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6219,13 +6222,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6259,7 +6262,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6271,7 +6274,7 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>244</v>
@@ -6334,7 +6337,7 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
@@ -6367,7 +6370,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6386,16 +6389,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6457,7 +6460,7 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6497,13 +6500,13 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>253</v>
@@ -6512,10 +6515,10 @@
         <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6576,13 +6579,13 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -6610,7 +6613,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6622,7 +6625,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>341</v>
@@ -6689,13 +6692,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6729,7 +6732,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6741,7 +6744,7 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>349</v>
@@ -6776,7 +6779,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>352</v>
@@ -6806,13 +6809,13 @@
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6893,7 +6896,7 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>220</v>
@@ -6929,7 +6932,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6962,10 +6965,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -7041,7 +7044,7 @@
         <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7050,7 +7053,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>237</v>
@@ -7084,7 +7087,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7096,7 +7099,7 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>244</v>
@@ -7159,7 +7162,7 @@
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -7192,7 +7195,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7211,16 +7214,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7282,7 +7285,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -7322,13 +7325,13 @@
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>253</v>
@@ -7337,10 +7340,10 @@
         <v>254</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7401,13 +7404,13 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -7432,10 +7435,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7480,7 +7483,7 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>259</v>
@@ -7510,13 +7513,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>261</v>
@@ -7635,7 +7638,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7666,19 +7669,19 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>278</v>
@@ -7748,13 +7751,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>283</v>
@@ -7788,7 +7791,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7800,7 +7803,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>289</v>
@@ -7865,13 +7868,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7905,7 +7908,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7917,7 +7920,7 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>295</v>
@@ -7982,13 +7985,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -8019,19 +8022,19 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>301</v>
@@ -8098,16 +8101,16 @@
         <v>300</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8141,7 +8144,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -8216,13 +8219,13 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>312</v>
@@ -8268,7 +8271,7 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>318</v>
@@ -8341,7 +8344,7 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8387,7 +8390,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>326</v>
@@ -8422,7 +8425,7 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X53" t="s" s="2">
         <v>329</v>
@@ -8452,13 +8455,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8489,10 +8492,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8567,13 +8570,13 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8607,7 +8610,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8619,7 +8622,7 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>244</v>
@@ -8682,7 +8685,7 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
@@ -8715,7 +8718,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8734,16 +8737,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8805,7 +8808,7 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
@@ -8845,13 +8848,13 @@
         <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>253</v>
@@ -8860,10 +8863,10 @@
         <v>254</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8924,13 +8927,13 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8958,7 +8961,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8970,7 +8973,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>341</v>
@@ -9037,13 +9040,13 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9077,7 +9080,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9089,7 +9092,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>349</v>
@@ -9124,7 +9127,7 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>352</v>
@@ -9154,13 +9157,13 @@
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9241,7 +9244,7 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>220</v>
@@ -9277,7 +9280,7 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9310,10 +9313,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9389,7 +9392,7 @@
         <v>228</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9398,7 +9401,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>237</v>
@@ -9432,7 +9435,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9444,7 +9447,7 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>244</v>
@@ -9507,7 +9510,7 @@
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
@@ -9540,7 +9543,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9559,16 +9562,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9630,7 +9633,7 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -9670,13 +9673,13 @@
         <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>253</v>
@@ -9685,10 +9688,10 @@
         <v>254</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9749,13 +9752,13 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9780,10 +9783,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9828,7 +9831,7 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X65" t="s" s="2">
         <v>259</v>
@@ -9858,13 +9861,13 @@
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>261</v>
@@ -9983,7 +9986,7 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -10014,19 +10017,19 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>278</v>
@@ -10096,13 +10099,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>283</v>
@@ -10136,7 +10139,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -10148,7 +10151,7 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>289</v>
@@ -10213,13 +10216,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10253,7 +10256,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10265,7 +10268,7 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>295</v>
@@ -10330,13 +10333,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10367,19 +10370,19 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>301</v>
@@ -10446,16 +10449,16 @@
         <v>300</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10489,7 +10492,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10564,13 +10567,13 @@
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>312</v>
@@ -10616,7 +10619,7 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>318</v>
@@ -10689,7 +10692,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10735,7 +10738,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>326</v>
@@ -10770,7 +10773,7 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>329</v>
@@ -10800,13 +10803,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10837,10 +10840,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10915,13 +10918,13 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10955,7 +10958,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10967,7 +10970,7 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>244</v>
@@ -11030,7 +11033,7 @@
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -11063,7 +11066,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11082,16 +11085,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11153,7 +11156,7 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
@@ -11193,13 +11196,13 @@
         <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>253</v>
@@ -11208,10 +11211,10 @@
         <v>254</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -11272,13 +11275,13 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -11306,7 +11309,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11318,7 +11321,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>341</v>
@@ -11385,13 +11388,13 @@
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11425,7 +11428,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11437,7 +11440,7 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>349</v>
@@ -11472,7 +11475,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>352</v>
@@ -11502,13 +11505,13 @@
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11589,7 +11592,7 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>220</v>
@@ -11625,7 +11628,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11661,7 +11664,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11737,7 +11740,7 @@
         <v>228</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11746,7 +11749,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>237</v>
@@ -11780,7 +11783,7 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11792,7 +11795,7 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>244</v>
@@ -11855,7 +11858,7 @@
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
@@ -11888,7 +11891,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11907,16 +11910,16 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11978,7 +11981,7 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
@@ -12018,13 +12021,13 @@
         <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>253</v>
@@ -12033,10 +12036,10 @@
         <v>254</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -12097,13 +12100,13 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
@@ -12131,7 +12134,7 @@
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -12176,7 +12179,7 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
@@ -12204,13 +12207,13 @@
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>261</v>
@@ -12247,7 +12250,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12329,7 +12332,7 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -12360,19 +12363,19 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>278</v>
@@ -12442,13 +12445,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>283</v>
@@ -12482,7 +12485,7 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
@@ -12494,7 +12497,7 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>289</v>
@@ -12559,13 +12562,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12599,11 +12602,11 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12611,7 +12614,7 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>295</v>
@@ -12676,13 +12679,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12713,19 +12716,19 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>301</v>
@@ -12792,16 +12795,16 @@
         <v>300</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12835,7 +12838,7 @@
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>78</v>
@@ -12910,13 +12913,13 @@
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>312</v>
@@ -12962,7 +12965,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>318</v>
@@ -13035,7 +13038,7 @@
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13081,7 +13084,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>326</v>
@@ -13116,7 +13119,7 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>329</v>
@@ -13146,13 +13149,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13261,13 +13264,13 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13301,7 +13304,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>78</v>
@@ -13313,7 +13316,7 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>244</v>
@@ -13376,7 +13379,7 @@
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
@@ -13409,7 +13412,7 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13428,16 +13431,16 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13499,7 +13502,7 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
@@ -13539,13 +13542,13 @@
         <v>78</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>253</v>
@@ -13554,10 +13557,10 @@
         <v>254</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>78</v>
@@ -13618,13 +13621,13 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>78</v>
@@ -13652,7 +13655,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>78</v>
@@ -13664,7 +13667,7 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>341</v>
@@ -13731,13 +13734,13 @@
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13771,7 +13774,7 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13783,7 +13786,7 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>349</v>
@@ -13818,7 +13821,7 @@
         <v>78</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>352</v>
@@ -13848,13 +13851,13 @@
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13891,7 +13894,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13935,7 +13938,7 @@
         <v>78</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>220</v>
@@ -13971,7 +13974,7 @@
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -14002,13 +14005,13 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14081,16 +14084,16 @@
         <v>368</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14124,7 +14127,7 @@
         <v>79</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>78</v>
@@ -14136,7 +14139,7 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>244</v>
@@ -14199,7 +14202,7 @@
         <v>79</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
@@ -14232,7 +14235,7 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14251,16 +14254,16 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14322,7 +14325,7 @@
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
@@ -14362,13 +14365,13 @@
         <v>78</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>253</v>
@@ -14377,10 +14380,10 @@
         <v>254</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>78</v>
@@ -14441,13 +14444,13 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
@@ -14475,7 +14478,7 @@
         <v>79</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>78</v>
@@ -14487,7 +14490,7 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>380</v>
@@ -14552,13 +14555,13 @@
         <v>79</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14589,19 +14592,19 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>278</v>
@@ -14666,16 +14669,16 @@
         <v>385</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14721,7 +14724,7 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>392</v>
@@ -14756,7 +14759,7 @@
         <v>78</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X107" t="s" s="2">
         <v>395</v>
@@ -14792,7 +14795,7 @@
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14894,7 +14897,7 @@
         <v>78</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>399</v>
@@ -14921,7 +14924,7 @@
         <v>407</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>408</v>
@@ -14943,7 +14946,7 @@
         <v>79</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>78</v>
@@ -14955,7 +14958,7 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>244</v>
@@ -15018,7 +15021,7 @@
         <v>79</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
@@ -15051,7 +15054,7 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15070,16 +15073,16 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15141,7 +15144,7 @@
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
@@ -15181,13 +15184,13 @@
         <v>78</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>253</v>
@@ -15196,10 +15199,10 @@
         <v>254</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>78</v>
@@ -15260,13 +15263,13 @@
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>78</v>
@@ -15294,16 +15297,16 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>414</v>
@@ -15369,13 +15372,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15387,7 +15390,7 @@
         <v>417</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>78</v>
@@ -15409,7 +15412,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15421,7 +15424,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>420</v>
@@ -15458,7 +15461,7 @@
         <v>78</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>424</v>
@@ -15488,13 +15491,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15506,7 +15509,7 @@
         <v>427</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>428</v>
@@ -15528,7 +15531,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15540,7 +15543,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>431</v>
@@ -15575,7 +15578,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>434</v>
@@ -15605,13 +15608,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15645,7 +15648,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>78</v>
@@ -15657,7 +15660,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>441</v>
@@ -15694,7 +15697,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>442</v>
@@ -15724,13 +15727,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15776,7 +15779,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>450</v>
@@ -15813,7 +15816,7 @@
         <v>78</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>454</v>
@@ -15849,7 +15852,7 @@
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15883,19 +15886,19 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>459</v>
@@ -15962,13 +15965,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -16002,7 +16005,7 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>78</v>
@@ -16014,7 +16017,7 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>468</v>
@@ -16079,13 +16082,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16119,16 +16122,16 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I119" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>473</v>
@@ -16198,13 +16201,13 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16321,7 +16324,7 @@
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16355,7 +16358,7 @@
         <v>79</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>78</v>
@@ -16367,7 +16370,7 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>244</v>
@@ -16430,7 +16433,7 @@
         <v>79</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>78</v>
@@ -16463,7 +16466,7 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16482,16 +16485,16 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16553,7 +16556,7 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
@@ -16593,13 +16596,13 @@
         <v>78</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>253</v>
@@ -16608,10 +16611,10 @@
         <v>254</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>78</v>
@@ -16672,13 +16675,13 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>78</v>
@@ -16703,10 +16706,10 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16718,7 +16721,7 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>490</v>
@@ -16778,16 +16781,16 @@
         <v>489</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16818,10 +16821,10 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16897,16 +16900,16 @@
         <v>493</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -16942,7 +16945,7 @@
         <v>79</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -17039,7 +17042,7 @@
         <v>407</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>408</v>
@@ -17061,7 +17064,7 @@
         <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17073,7 +17076,7 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>244</v>
@@ -17136,7 +17139,7 @@
         <v>79</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>78</v>
@@ -17169,7 +17172,7 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17188,16 +17191,16 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17259,7 +17262,7 @@
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
@@ -17299,13 +17302,13 @@
         <v>78</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>253</v>
@@ -17314,10 +17317,10 @@
         <v>254</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>78</v>
@@ -17378,13 +17381,13 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>78</v>
@@ -17412,16 +17415,16 @@
         <v>79</v>
       </c>
       <c r="F130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I130" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>414</v>
@@ -17487,13 +17490,13 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
@@ -17505,7 +17508,7 @@
         <v>417</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17527,7 +17530,7 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>78</v>
@@ -17539,7 +17542,7 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>244</v>
@@ -17602,7 +17605,7 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
@@ -17635,7 +17638,7 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17654,16 +17657,16 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17710,7 +17713,7 @@
         <v>78</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>250</v>
@@ -17725,7 +17728,7 @@
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
@@ -17759,19 +17762,19 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>507</v>
@@ -17836,19 +17839,19 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>511</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>78</v>
@@ -17876,19 +17879,19 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J134" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>513</v>
@@ -17923,7 +17926,7 @@
         <v>78</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X134" t="s" s="2">
         <v>516</v>
@@ -17953,19 +17956,19 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>78</v>
@@ -17993,16 +17996,16 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>520</v>
@@ -18070,13 +18073,13 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
@@ -18110,7 +18113,7 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>78</v>
@@ -18122,7 +18125,7 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>244</v>
@@ -18185,7 +18188,7 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
@@ -18218,7 +18221,7 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18237,16 +18240,16 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K137" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L137" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18293,7 +18296,7 @@
         <v>78</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>250</v>
@@ -18308,7 +18311,7 @@
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18342,19 +18345,19 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I138" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>529</v>
@@ -18391,7 +18394,7 @@
         <v>78</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X138" t="s" s="2">
         <v>533</v>
@@ -18421,13 +18424,13 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18461,16 +18464,16 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J139" t="s" s="2">
         <v>216</v>
@@ -18510,7 +18513,7 @@
         <v>78</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>542</v>
@@ -18540,13 +18543,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18580,19 +18583,19 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J140" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>546</v>
@@ -18659,13 +18662,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18696,22 +18699,22 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>554</v>
@@ -18776,13 +18779,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18816,19 +18819,19 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>561</v>
@@ -18891,13 +18894,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18931,16 +18934,16 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>566</v>
@@ -19008,13 +19011,13 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19048,19 +19051,19 @@
         <v>79</v>
       </c>
       <c r="F144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J144" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>573</v>
@@ -19125,19 +19128,19 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>78</v>
@@ -19162,10 +19165,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19177,7 +19180,7 @@
         <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>420</v>
@@ -19214,7 +19217,7 @@
         <v>78</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X145" t="s" s="2">
         <v>424</v>
@@ -19244,13 +19247,13 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -19262,7 +19265,7 @@
         <v>427</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>428</v>
@@ -19284,7 +19287,7 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19296,7 +19299,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>431</v>
@@ -19331,7 +19334,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>434</v>
@@ -19361,13 +19364,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19401,7 +19404,7 @@
         <v>79</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19413,7 +19416,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>441</v>
@@ -19450,7 +19453,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>442</v>
@@ -19480,13 +19483,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19532,7 +19535,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>450</v>
@@ -19569,7 +19572,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>454</v>
@@ -19605,7 +19608,7 @@
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19639,19 +19642,19 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I149" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J149" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>459</v>
@@ -19718,13 +19721,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19758,7 +19761,7 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>78</v>
@@ -19770,7 +19773,7 @@
         <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>468</v>
@@ -19835,13 +19838,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19875,16 +19878,16 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I151" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>473</v>
@@ -19954,13 +19957,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -20077,7 +20080,7 @@
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20111,7 +20114,7 @@
         <v>79</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>78</v>
@@ -20123,7 +20126,7 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>244</v>
@@ -20186,7 +20189,7 @@
         <v>79</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>78</v>
@@ -20219,7 +20222,7 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20238,16 +20241,16 @@
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K154" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L154" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20309,7 +20312,7 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
@@ -20349,13 +20352,13 @@
         <v>78</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>253</v>
@@ -20364,10 +20367,10 @@
         <v>254</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>78</v>
@@ -20428,13 +20431,13 @@
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>78</v>
@@ -20459,10 +20462,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>78</v>
@@ -20474,7 +20477,7 @@
         <v>78</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>490</v>
@@ -20534,16 +20537,16 @@
         <v>489</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20574,10 +20577,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20653,16 +20656,16 @@
         <v>493</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
@@ -20695,10 +20698,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20795,7 +20798,7 @@
         <v>407</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>408</v>
@@ -20817,7 +20820,7 @@
         <v>79</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20829,7 +20832,7 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>244</v>
@@ -20892,7 +20895,7 @@
         <v>79</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>78</v>
@@ -20925,7 +20928,7 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20944,16 +20947,16 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -21015,7 +21018,7 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
@@ -21055,13 +21058,13 @@
         <v>78</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>253</v>
@@ -21070,10 +21073,10 @@
         <v>254</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>78</v>
@@ -21134,13 +21137,13 @@
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>78</v>
@@ -21165,19 +21168,19 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I162" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>414</v>
@@ -21243,13 +21246,13 @@
         <v>79</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21261,7 +21264,7 @@
         <v>417</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>78</v>
@@ -21280,10 +21283,10 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>78</v>
@@ -21295,7 +21298,7 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>420</v>
@@ -21332,7 +21335,7 @@
         <v>78</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X163" t="s" s="2">
         <v>424</v>
@@ -21362,13 +21365,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21380,7 +21383,7 @@
         <v>427</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>428</v>
@@ -21402,7 +21405,7 @@
         <v>79</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21414,7 +21417,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>431</v>
@@ -21449,7 +21452,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X164" s="2"/>
       <c r="Y164" t="s" s="2">
@@ -21477,13 +21480,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21517,7 +21520,7 @@
         <v>79</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>78</v>
@@ -21529,7 +21532,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>441</v>
@@ -21566,7 +21569,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>442</v>
@@ -21596,13 +21599,13 @@
         <v>79</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21648,7 +21651,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>581</v>
@@ -21685,7 +21688,7 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X166" t="s" s="2">
         <v>454</v>
@@ -21721,7 +21724,7 @@
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21755,19 +21758,19 @@
         <v>79</v>
       </c>
       <c r="F167" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I167" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J167" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>459</v>
@@ -21834,13 +21837,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21874,7 +21877,7 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>78</v>
@@ -21886,7 +21889,7 @@
         <v>78</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>468</v>
@@ -21951,13 +21954,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -21991,16 +21994,16 @@
         <v>79</v>
       </c>
       <c r="F169" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I169" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>473</v>
@@ -22070,13 +22073,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22193,7 +22196,7 @@
         <v>78</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22227,7 +22230,7 @@
         <v>79</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>78</v>
@@ -22239,7 +22242,7 @@
         <v>78</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K171" t="s" s="2">
         <v>244</v>
@@ -22302,7 +22305,7 @@
         <v>79</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>78</v>
@@ -22335,7 +22338,7 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22354,16 +22357,16 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K172" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -22425,7 +22428,7 @@
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
@@ -22465,13 +22468,13 @@
         <v>78</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>253</v>
@@ -22480,10 +22483,10 @@
         <v>254</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>78</v>
@@ -22544,13 +22547,13 @@
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>78</v>
@@ -22575,10 +22578,10 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>78</v>
@@ -22590,7 +22593,7 @@
         <v>78</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>490</v>
@@ -22650,16 +22653,16 @@
         <v>489</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
@@ -22690,10 +22693,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22769,16 +22772,16 @@
         <v>493</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>78</v>
@@ -22811,10 +22814,10 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>78</v>
@@ -22911,7 +22914,7 @@
         <v>407</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>408</v>
@@ -22933,7 +22936,7 @@
         <v>79</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>78</v>
@@ -22945,7 +22948,7 @@
         <v>78</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K177" t="s" s="2">
         <v>244</v>
@@ -23008,7 +23011,7 @@
         <v>79</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>78</v>
@@ -23041,7 +23044,7 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23060,16 +23063,16 @@
         <v>78</v>
       </c>
       <c r="J178" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K178" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L178" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
@@ -23131,7 +23134,7 @@
         <v>78</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>78</v>
@@ -23171,13 +23174,13 @@
         <v>78</v>
       </c>
       <c r="H179" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K179" t="s" s="2">
         <v>253</v>
@@ -23186,10 +23189,10 @@
         <v>254</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>78</v>
@@ -23250,13 +23253,13 @@
         <v>78</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>78</v>
@@ -23281,19 +23284,19 @@
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F180" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I180" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F180" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G180" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J180" t="s" s="2">
         <v>583</v>
@@ -23359,13 +23362,13 @@
         <v>79</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>78</v>
@@ -23377,7 +23380,7 @@
         <v>417</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>78</v>
@@ -23396,10 +23399,10 @@
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>78</v>
@@ -23411,7 +23414,7 @@
         <v>78</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K181" t="s" s="2">
         <v>420</v>
@@ -23448,7 +23451,7 @@
         <v>78</v>
       </c>
       <c r="W181" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X181" t="s" s="2">
         <v>424</v>
@@ -23478,13 +23481,13 @@
         <v>79</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>78</v>
@@ -23496,7 +23499,7 @@
         <v>427</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>428</v>
@@ -23518,7 +23521,7 @@
         <v>79</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>78</v>
@@ -23530,7 +23533,7 @@
         <v>78</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K182" t="s" s="2">
         <v>431</v>
@@ -23565,7 +23568,7 @@
         <v>78</v>
       </c>
       <c r="W182" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X182" t="s" s="2">
         <v>434</v>
@@ -23595,13 +23598,13 @@
         <v>79</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>78</v>
@@ -23635,7 +23638,7 @@
         <v>79</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>78</v>
@@ -23647,7 +23650,7 @@
         <v>78</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>441</v>
@@ -23684,7 +23687,7 @@
         <v>78</v>
       </c>
       <c r="W183" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X183" t="s" s="2">
         <v>442</v>
@@ -23714,13 +23717,13 @@
         <v>79</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>78</v>
@@ -23766,7 +23769,7 @@
         <v>78</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K184" t="s" s="2">
         <v>450</v>
@@ -23803,7 +23806,7 @@
         <v>78</v>
       </c>
       <c r="W184" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X184" t="s" s="2">
         <v>454</v>
@@ -23839,7 +23842,7 @@
         <v>78</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>78</v>
@@ -23873,19 +23876,19 @@
         <v>79</v>
       </c>
       <c r="F185" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I185" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G185" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J185" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K185" t="s" s="2">
         <v>459</v>
@@ -23952,13 +23955,13 @@
         <v>79</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>78</v>
@@ -23992,7 +23995,7 @@
         <v>79</v>
       </c>
       <c r="F186" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>78</v>
@@ -24004,7 +24007,7 @@
         <v>78</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K186" t="s" s="2">
         <v>468</v>
@@ -24069,13 +24072,13 @@
         <v>79</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>78</v>
@@ -24109,16 +24112,16 @@
         <v>79</v>
       </c>
       <c r="F187" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I187" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J187" t="s" s="2">
         <v>473</v>
@@ -24188,13 +24191,13 @@
         <v>79</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>78</v>
@@ -24311,7 +24314,7 @@
         <v>78</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>78</v>
@@ -24345,7 +24348,7 @@
         <v>79</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>78</v>
@@ -24357,7 +24360,7 @@
         <v>78</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K189" t="s" s="2">
         <v>244</v>
@@ -24420,7 +24423,7 @@
         <v>79</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>78</v>
@@ -24453,7 +24456,7 @@
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -24472,16 +24475,16 @@
         <v>78</v>
       </c>
       <c r="J190" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K190" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L190" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
@@ -24543,7 +24546,7 @@
         <v>78</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>78</v>
@@ -24583,13 +24586,13 @@
         <v>78</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K191" t="s" s="2">
         <v>253</v>
@@ -24598,10 +24601,10 @@
         <v>254</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>78</v>
@@ -24662,13 +24665,13 @@
         <v>78</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL191" t="s" s="2">
         <v>78</v>
@@ -24693,10 +24696,10 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G192" t="s" s="2">
         <v>78</v>
@@ -24708,7 +24711,7 @@
         <v>78</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>490</v>
@@ -24768,16 +24771,16 @@
         <v>489</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>78</v>
@@ -24808,10 +24811,10 @@
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>78</v>
@@ -24887,16 +24890,16 @@
         <v>493</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>78</v>
